--- a/DokkanKits/135.xlsx
+++ b/DokkanKits/135.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30820384-4FF8-4B3F-9C01-C21839FD328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CF4DE-9164-4213-BB5A-8AF38257E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3893" yWindow="803" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="127" windowWidth="11362" windowHeight="14153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Super</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Link 1</t>
   </si>
   <si>
-    <t>Golden Warrior</t>
-  </si>
-  <si>
     <t>Link 2</t>
   </si>
   <si>
@@ -188,15 +182,9 @@
     <t>Link 3</t>
   </si>
   <si>
-    <t>Super Saiyan</t>
-  </si>
-  <si>
     <t>Link 4</t>
   </si>
   <si>
-    <t>Kamehameha</t>
-  </si>
-  <si>
     <t>Link 5</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>Link 7</t>
   </si>
   <si>
-    <t>Legendary Power</t>
-  </si>
-  <si>
     <t>Passive Ki</t>
   </si>
   <si>
@@ -251,9 +236,6 @@
     <t>AA P Super</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>AA P Guarantee</t>
   </si>
   <si>
@@ -293,15 +275,9 @@
     <t>Dmg Red Normal</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
     <t>DF</t>
   </si>
   <si>
-    <t>STR</t>
-  </si>
-  <si>
     <t>Immense</t>
   </si>
   <si>
@@ -320,7 +296,40 @@
     <t>Revival Skill Turn</t>
   </si>
   <si>
-    <t>Mega-Colossal</t>
+    <t>Turles</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>Big Bad Bosses</t>
+  </si>
+  <si>
+    <t>Thirst for Conquest</t>
+  </si>
+  <si>
+    <t>Brutal Beatdown</t>
+  </si>
+  <si>
+    <t>Destroyer of the Universe</t>
+  </si>
+  <si>
+    <t>[0.5]</t>
+  </si>
+  <si>
+    <t>[0.375]</t>
+  </si>
+  <si>
+    <t>[0.375,0.5]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
   </si>
 </sst>
 </file>
@@ -884,6 +893,11 @@
         <row r="7">
           <cell r="B7">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>0.24999999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -1181,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,13 +1252,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1252,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1260,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1268,20 +1282,20 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1289,26 +1303,26 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>44927</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>8256</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1316,31 +1330,32 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>0.875</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1351,7 +1366,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>1.5</v>
@@ -1359,13 +1374,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1373,13 +1388,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1395,7 +1407,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1403,23 +1415,24 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f>0.5+5.5</f>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1427,7 +1440,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1435,43 +1448,46 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>1.6+0.6*(1-[1]Sheet1!$D$51)</f>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1482,27 +1498,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f>0.4*(1+0.5+0.375)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D27">
+        <f>C27+0.4*(1+0.5*0.75+0.375)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="E27">
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f>0.18*0.25</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1510,7 +1536,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1524,13 +1550,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1538,18 +1565,18 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1560,7 +1587,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1571,7 +1598,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1585,7 +1612,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1596,7 +1623,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1607,7 +1634,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1618,7 +1645,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1626,7 +1653,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1637,7 +1664,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1645,18 +1672,18 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1664,18 +1691,18 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1683,18 +1710,18 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1702,18 +1729,18 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1721,18 +1748,18 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1740,24 +1767,37 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>3*0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="D52">
+        <f>C52+1.5+2*1.375</f>
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <f>C52+1.5+2*2*1.375</f>
+        <v>7.75</v>
+      </c>
+      <c r="F52">
+        <f>C52+8</f>
+        <v>8.75</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -1765,7 +1805,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1781,7 +1821,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1792,13 +1832,26 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <f>0.06*(1+0.5+0.375)</f>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="D55">
+        <f>0.06*(1+0.75*0.5+0.375)</f>
+        <v>0.105</v>
+      </c>
+      <c r="E55">
+        <f>0.06*(1+0.75*0.5+0.375)</f>
+        <v>0.105</v>
+      </c>
+      <c r="F55">
+        <f>0.06*(1+0.5+0.75*0.5+0.5)</f>
+        <v>0.14249999999999999</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -1809,13 +1862,14 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <f>2*1*0.25</f>
+        <v>0.5</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -1826,7 +1880,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1840,7 +1894,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1851,18 +1905,27 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <f>0.05*(1+0.5+0.375)</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="D59">
+        <f>C59+0.05*(1+0.5*0.75+0.375)</f>
+        <v>0.18125000000000002</v>
+      </c>
+      <c r="E59">
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1876,7 +1939,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1887,7 +1950,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1898,7 +1961,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1912,35 +1975,55 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
-      </c>
-      <c r="M64" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="M64" t="str">
+        <f>F64</f>
+        <v>[0.375,0.5]</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="M65" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" t="s">
+        <v>97</v>
+      </c>
+      <c r="M65" t="str">
+        <f>F65</f>
+        <v>[1,1]</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1954,16 +2037,26 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
       <c r="M67">
-        <v>0</v>
+        <f>F67</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
